--- a/natmiOut/OldD2/LR-pairs_lrc2p/Amh-Egfr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Amh-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Egfr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.357092728140489</v>
+        <v>0.1560025</v>
       </c>
       <c r="H2">
-        <v>0.357092728140489</v>
+        <v>0.312005</v>
       </c>
       <c r="I2">
-        <v>0.5275468004392498</v>
+        <v>0.1050366275703263</v>
       </c>
       <c r="J2">
-        <v>0.5275468004392498</v>
+        <v>0.07934069952454829</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N2">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O2">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P2">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q2">
-        <v>0.1988466858410125</v>
+        <v>0.08889552858499998</v>
       </c>
       <c r="R2">
-        <v>0.1988466858410125</v>
+        <v>0.3555821143399999</v>
       </c>
       <c r="S2">
-        <v>0.004253380184214002</v>
+        <v>0.0008056944732204223</v>
       </c>
       <c r="T2">
-        <v>0.004253380184214002</v>
+        <v>0.000451215163343749</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.357092728140489</v>
+        <v>0.1560025</v>
       </c>
       <c r="H3">
-        <v>0.357092728140489</v>
+        <v>0.312005</v>
       </c>
       <c r="I3">
-        <v>0.5275468004392498</v>
+        <v>0.1050366275703263</v>
       </c>
       <c r="J3">
-        <v>0.5275468004392498</v>
+        <v>0.07934069952454829</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P3">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q3">
-        <v>16.66296484956665</v>
+        <v>7.816101996037499</v>
       </c>
       <c r="R3">
-        <v>16.66296484956665</v>
+        <v>46.896611976225</v>
       </c>
       <c r="S3">
-        <v>0.3564249723431063</v>
+        <v>0.07084034799695348</v>
       </c>
       <c r="T3">
-        <v>0.3564249723431063</v>
+        <v>0.05950935544774786</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.357092728140489</v>
+        <v>0.1560025</v>
       </c>
       <c r="H4">
-        <v>0.357092728140489</v>
+        <v>0.312005</v>
       </c>
       <c r="I4">
-        <v>0.5275468004392498</v>
+        <v>0.1050366275703263</v>
       </c>
       <c r="J4">
-        <v>0.5275468004392498</v>
+        <v>0.07934069952454829</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N4">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O4">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P4">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q4">
-        <v>0.1414837421233911</v>
+        <v>0.06320358086166666</v>
       </c>
       <c r="R4">
-        <v>0.1414837421233911</v>
+        <v>0.37922148517</v>
       </c>
       <c r="S4">
-        <v>0.00302637251705181</v>
+        <v>0.0005728384385418624</v>
       </c>
       <c r="T4">
-        <v>0.00302637251705181</v>
+        <v>0.0004812122923900174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.357092728140489</v>
+        <v>0.1560025</v>
       </c>
       <c r="H5">
-        <v>0.357092728140489</v>
+        <v>0.312005</v>
       </c>
       <c r="I5">
-        <v>0.5275468004392498</v>
+        <v>0.1050366275703263</v>
       </c>
       <c r="J5">
-        <v>0.5275468004392498</v>
+        <v>0.07934069952454829</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N5">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O5">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P5">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q5">
-        <v>0.1009016174376672</v>
+        <v>0.04432696635666667</v>
       </c>
       <c r="R5">
-        <v>0.1009016174376672</v>
+        <v>0.26596179814</v>
       </c>
       <c r="S5">
-        <v>0.002158310752574776</v>
+        <v>0.000401752398311519</v>
       </c>
       <c r="T5">
-        <v>0.002158310752574776</v>
+        <v>0.0003374916548141962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.357092728140489</v>
+        <v>0.1560025</v>
       </c>
       <c r="H6">
-        <v>0.357092728140489</v>
+        <v>0.312005</v>
       </c>
       <c r="I6">
-        <v>0.5275468004392498</v>
+        <v>0.1050366275703263</v>
       </c>
       <c r="J6">
-        <v>0.5275468004392498</v>
+        <v>0.07934069952454829</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N6">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O6">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P6">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q6">
-        <v>0.3242041700115532</v>
+        <v>0.1605313045758333</v>
       </c>
       <c r="R6">
-        <v>0.3242041700115532</v>
+        <v>0.963187827455</v>
       </c>
       <c r="S6">
-        <v>0.006934808023248802</v>
+        <v>0.001454957149525714</v>
       </c>
       <c r="T6">
-        <v>0.006934808023248802</v>
+        <v>0.001222235133233554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.357092728140489</v>
+        <v>0.1560025</v>
       </c>
       <c r="H7">
-        <v>0.357092728140489</v>
+        <v>0.312005</v>
       </c>
       <c r="I7">
-        <v>0.5275468004392498</v>
+        <v>0.1050366275703263</v>
       </c>
       <c r="J7">
-        <v>0.5275468004392498</v>
+        <v>0.07934069952454829</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N7">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O7">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P7">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q7">
-        <v>7.234556006833862</v>
+        <v>3.41605639761625</v>
       </c>
       <c r="R7">
-        <v>7.234556006833862</v>
+        <v>13.664225590465</v>
       </c>
       <c r="S7">
-        <v>0.1547489566190541</v>
+        <v>0.03096103711377328</v>
       </c>
       <c r="T7">
-        <v>0.1547489566190541</v>
+        <v>0.01733918983301893</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.319800256222536</v>
+        <v>0.1331066666666667</v>
       </c>
       <c r="H8">
-        <v>0.319800256222536</v>
+        <v>0.39932</v>
       </c>
       <c r="I8">
-        <v>0.4724531995607502</v>
+        <v>0.08962084180570332</v>
       </c>
       <c r="J8">
-        <v>0.4724531995607502</v>
+        <v>0.1015442961944284</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N8">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O8">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P8">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q8">
-        <v>0.178080414608554</v>
+        <v>0.07584870429333333</v>
       </c>
       <c r="R8">
-        <v>0.178080414608554</v>
+        <v>0.45509222576</v>
       </c>
       <c r="S8">
-        <v>0.003809184465353623</v>
+        <v>0.0006874460709419808</v>
       </c>
       <c r="T8">
-        <v>0.003809184465353623</v>
+        <v>0.00057748830636184</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.319800256222536</v>
+        <v>0.1331066666666667</v>
       </c>
       <c r="H9">
-        <v>0.319800256222536</v>
+        <v>0.39932</v>
       </c>
       <c r="I9">
-        <v>0.4724531995607502</v>
+        <v>0.08962084180570332</v>
       </c>
       <c r="J9">
-        <v>0.4724531995607502</v>
+        <v>0.1015442961944284</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P9">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q9">
-        <v>14.92279178035246</v>
+        <v>6.668965452600001</v>
       </c>
       <c r="R9">
-        <v>14.92279178035246</v>
+        <v>60.0206890734</v>
       </c>
       <c r="S9">
-        <v>0.3192022365535019</v>
+        <v>0.06044340691579402</v>
       </c>
       <c r="T9">
-        <v>0.3192022365535019</v>
+        <v>0.07616312500567196</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.319800256222536</v>
+        <v>0.1331066666666667</v>
       </c>
       <c r="H10">
-        <v>0.319800256222536</v>
+        <v>0.39932</v>
       </c>
       <c r="I10">
-        <v>0.4724531995607502</v>
+        <v>0.08962084180570332</v>
       </c>
       <c r="J10">
-        <v>0.4724531995607502</v>
+        <v>0.1015442961944284</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N10">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O10">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P10">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q10">
-        <v>0.1267080884508592</v>
+        <v>0.05392745609777779</v>
       </c>
       <c r="R10">
-        <v>0.1267080884508592</v>
+        <v>0.48534710488</v>
       </c>
       <c r="S10">
-        <v>0.0027103176013073</v>
+        <v>0.0004887653408941877</v>
       </c>
       <c r="T10">
-        <v>0.0027103176013073</v>
+        <v>0.0006158801705010554</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.319800256222536</v>
+        <v>0.1331066666666667</v>
       </c>
       <c r="H11">
-        <v>0.319800256222536</v>
+        <v>0.39932</v>
       </c>
       <c r="I11">
-        <v>0.4724531995607502</v>
+        <v>0.08962084180570332</v>
       </c>
       <c r="J11">
-        <v>0.4724531995607502</v>
+        <v>0.1015442961944284</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N11">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O11">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P11">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q11">
-        <v>0.09036410032169329</v>
+        <v>0.03782128321777779</v>
       </c>
       <c r="R11">
-        <v>0.09036410032169329</v>
+        <v>0.34039154896</v>
       </c>
       <c r="S11">
-        <v>0.001932910634376501</v>
+        <v>0.0003427888820024375</v>
       </c>
       <c r="T11">
-        <v>0.001932910634376501</v>
+        <v>0.000431939127899889</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.319800256222536</v>
+        <v>0.1331066666666667</v>
       </c>
       <c r="H12">
-        <v>0.319800256222536</v>
+        <v>0.39932</v>
       </c>
       <c r="I12">
-        <v>0.4724531995607502</v>
+        <v>0.08962084180570332</v>
       </c>
       <c r="J12">
-        <v>0.4724531995607502</v>
+        <v>0.1015442961944284</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N12">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O12">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P12">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q12">
-        <v>0.2903463679532529</v>
+        <v>0.1369707975688889</v>
       </c>
       <c r="R12">
-        <v>0.2903463679532529</v>
+        <v>1.23273717812</v>
       </c>
       <c r="S12">
-        <v>0.006210581196199961</v>
+        <v>0.001241419184411806</v>
       </c>
       <c r="T12">
-        <v>0.006210581196199961</v>
+        <v>0.00156427920514999</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1331066666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.39932</v>
+      </c>
+      <c r="I13">
+        <v>0.08962084180570332</v>
+      </c>
+      <c r="J13">
+        <v>0.1015442961944284</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.8974465</v>
+      </c>
+      <c r="N13">
+        <v>43.794893</v>
+      </c>
+      <c r="O13">
+        <v>0.2947641963565862</v>
+      </c>
+      <c r="P13">
+        <v>0.2185409246064703</v>
+      </c>
+      <c r="Q13">
+        <v>2.914696112126667</v>
+      </c>
+      <c r="R13">
+        <v>17.48817667276</v>
+      </c>
+      <c r="S13">
+        <v>0.02641701541165889</v>
+      </c>
+      <c r="T13">
+        <v>0.02219158437884367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.395809</v>
+      </c>
+      <c r="H14">
+        <v>1.187427</v>
+      </c>
+      <c r="I14">
+        <v>0.2664985658690295</v>
+      </c>
+      <c r="J14">
+        <v>0.301954420007166</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.569834</v>
+      </c>
+      <c r="N14">
+        <v>1.139668</v>
+      </c>
+      <c r="O14">
+        <v>0.007670604929513537</v>
+      </c>
+      <c r="P14">
+        <v>0.005687058042690201</v>
+      </c>
+      <c r="Q14">
+        <v>0.225545425706</v>
+      </c>
+      <c r="R14">
+        <v>1.353272554236</v>
+      </c>
+      <c r="S14">
+        <v>0.002044205213063266</v>
+      </c>
+      <c r="T14">
+        <v>0.001717232312827608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.395809</v>
+      </c>
+      <c r="H15">
+        <v>1.187427</v>
+      </c>
+      <c r="I15">
+        <v>0.2664985658690295</v>
+      </c>
+      <c r="J15">
+        <v>0.301954420007166</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>50.102415</v>
+      </c>
+      <c r="N15">
+        <v>150.307245</v>
+      </c>
+      <c r="O15">
+        <v>0.6744347151618419</v>
+      </c>
+      <c r="P15">
+        <v>0.7500482829664925</v>
+      </c>
+      <c r="Q15">
+        <v>19.830986778735</v>
+      </c>
+      <c r="R15">
+        <v>178.478881008615</v>
+      </c>
+      <c r="S15">
+        <v>0.1797358843629183</v>
+      </c>
+      <c r="T15">
+        <v>0.226480394260518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.395809</v>
+      </c>
+      <c r="H16">
+        <v>1.187427</v>
+      </c>
+      <c r="I16">
+        <v>0.2664985658690295</v>
+      </c>
+      <c r="J16">
+        <v>0.301954420007166</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4051446666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.215434</v>
+      </c>
+      <c r="O16">
+        <v>0.005453701739979455</v>
+      </c>
+      <c r="P16">
+        <v>0.006065138009542361</v>
+      </c>
+      <c r="Q16">
+        <v>0.1603599053686667</v>
+      </c>
+      <c r="R16">
+        <v>1.443239148318</v>
+      </c>
+      <c r="S16">
+        <v>0.001453403692381956</v>
+      </c>
+      <c r="T16">
+        <v>0.001831395229934781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.395809</v>
+      </c>
+      <c r="H17">
+        <v>1.187427</v>
+      </c>
+      <c r="I17">
+        <v>0.2664985658690295</v>
+      </c>
+      <c r="J17">
+        <v>0.301954420007166</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2841426666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.8524280000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.00382487906937539</v>
+      </c>
+      <c r="P17">
+        <v>0.004253701528176911</v>
+      </c>
+      <c r="Q17">
+        <v>0.1124662247506667</v>
+      </c>
+      <c r="R17">
+        <v>1.012196022756</v>
+      </c>
+      <c r="S17">
+        <v>0.00101932478661101</v>
+      </c>
+      <c r="T17">
+        <v>0.001284423977824255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.395809</v>
+      </c>
+      <c r="H18">
+        <v>1.187427</v>
+      </c>
+      <c r="I18">
+        <v>0.2664985658690295</v>
+      </c>
+      <c r="J18">
+        <v>0.301954420007166</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.029030333333333</v>
+      </c>
+      <c r="N18">
+        <v>3.087091</v>
+      </c>
+      <c r="O18">
+        <v>0.01385190274270336</v>
+      </c>
+      <c r="P18">
+        <v>0.01540489484662774</v>
+      </c>
+      <c r="Q18">
+        <v>0.4072994672063333</v>
+      </c>
+      <c r="R18">
+        <v>3.665695204857</v>
+      </c>
+      <c r="S18">
+        <v>0.003691512215487722</v>
+      </c>
+      <c r="T18">
+        <v>0.004651576088684858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.395809</v>
+      </c>
+      <c r="H19">
+        <v>1.187427</v>
+      </c>
+      <c r="I19">
+        <v>0.2664985658690295</v>
+      </c>
+      <c r="J19">
+        <v>0.301954420007166</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>21.8974465</v>
+      </c>
+      <c r="N19">
+        <v>43.794893</v>
+      </c>
+      <c r="O19">
+        <v>0.2947641963565862</v>
+      </c>
+      <c r="P19">
+        <v>0.2185409246064703</v>
+      </c>
+      <c r="Q19">
+        <v>8.6672064017185</v>
+      </c>
+      <c r="R19">
+        <v>52.00323841031101</v>
+      </c>
+      <c r="S19">
+        <v>0.07855423559856725</v>
+      </c>
+      <c r="T19">
+        <v>0.06598939813737655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.4331153333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.299346</v>
+      </c>
+      <c r="I20">
+        <v>0.291616954615029</v>
+      </c>
+      <c r="J20">
+        <v>0.3304146426000344</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.569834</v>
+      </c>
+      <c r="N20">
+        <v>1.139668</v>
+      </c>
+      <c r="O20">
+        <v>0.007670604929513537</v>
+      </c>
+      <c r="P20">
+        <v>0.005687058042690201</v>
+      </c>
+      <c r="Q20">
+        <v>0.2468038428546666</v>
+      </c>
+      <c r="R20">
+        <v>1.480823057128</v>
+      </c>
+      <c r="S20">
+        <v>0.002236878449599767</v>
+      </c>
+      <c r="T20">
+        <v>0.001879087250621134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.319800256222536</v>
-      </c>
-      <c r="H13">
-        <v>0.319800256222536</v>
-      </c>
-      <c r="I13">
-        <v>0.4724531995607502</v>
-      </c>
-      <c r="J13">
-        <v>0.4724531995607502</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>20.2596004811042</v>
-      </c>
-      <c r="N13">
-        <v>20.2596004811042</v>
-      </c>
-      <c r="O13">
-        <v>0.293336925729065</v>
-      </c>
-      <c r="P13">
-        <v>0.293336925729065</v>
-      </c>
-      <c r="Q13">
-        <v>6.479025424823337</v>
-      </c>
-      <c r="R13">
-        <v>6.479025424823337</v>
-      </c>
-      <c r="S13">
-        <v>0.1385879691100109</v>
-      </c>
-      <c r="T13">
-        <v>0.1385879691100109</v>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.4331153333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.299346</v>
+      </c>
+      <c r="I21">
+        <v>0.291616954615029</v>
+      </c>
+      <c r="J21">
+        <v>0.3304146426000344</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>50.102415</v>
+      </c>
+      <c r="N21">
+        <v>150.307245</v>
+      </c>
+      <c r="O21">
+        <v>0.6744347151618419</v>
+      </c>
+      <c r="P21">
+        <v>0.7500482829664925</v>
+      </c>
+      <c r="Q21">
+        <v>21.70012417353</v>
+      </c>
+      <c r="R21">
+        <v>195.30111756177</v>
+      </c>
+      <c r="S21">
+        <v>0.1966765977221508</v>
+      </c>
+      <c r="T21">
+        <v>0.2478269353491431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.4331153333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.299346</v>
+      </c>
+      <c r="I22">
+        <v>0.291616954615029</v>
+      </c>
+      <c r="J22">
+        <v>0.3304146426000344</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.4051446666666667</v>
+      </c>
+      <c r="N22">
+        <v>1.215434</v>
+      </c>
+      <c r="O22">
+        <v>0.005453701739979455</v>
+      </c>
+      <c r="P22">
+        <v>0.006065138009542361</v>
+      </c>
+      <c r="Q22">
+        <v>0.1754743673515556</v>
+      </c>
+      <c r="R22">
+        <v>1.579269306164</v>
+      </c>
+      <c r="S22">
+        <v>0.001590391892791493</v>
+      </c>
+      <c r="T22">
+        <v>0.002004010407742823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.4331153333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.299346</v>
+      </c>
+      <c r="I23">
+        <v>0.291616954615029</v>
+      </c>
+      <c r="J23">
+        <v>0.3304146426000344</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.2841426666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.8524280000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.00382487906937539</v>
+      </c>
+      <c r="P23">
+        <v>0.004253701528176911</v>
+      </c>
+      <c r="Q23">
+        <v>0.1230665457875556</v>
+      </c>
+      <c r="R23">
+        <v>1.107598912088</v>
+      </c>
+      <c r="S23">
+        <v>0.001115399585982017</v>
+      </c>
+      <c r="T23">
+        <v>0.001405485270159794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.4331153333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.299346</v>
+      </c>
+      <c r="I24">
+        <v>0.291616954615029</v>
+      </c>
+      <c r="J24">
+        <v>0.3304146426000344</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.029030333333333</v>
+      </c>
+      <c r="N24">
+        <v>3.087091</v>
+      </c>
+      <c r="O24">
+        <v>0.01385190274270336</v>
+      </c>
+      <c r="P24">
+        <v>0.01540489484662774</v>
+      </c>
+      <c r="Q24">
+        <v>0.4456888158317777</v>
+      </c>
+      <c r="R24">
+        <v>4.011199342486</v>
+      </c>
+      <c r="S24">
+        <v>0.00403944969345072</v>
+      </c>
+      <c r="T24">
+        <v>0.005090002825039614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.4331153333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.299346</v>
+      </c>
+      <c r="I25">
+        <v>0.291616954615029</v>
+      </c>
+      <c r="J25">
+        <v>0.3304146426000344</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>21.8974465</v>
+      </c>
+      <c r="N25">
+        <v>43.794893</v>
+      </c>
+      <c r="O25">
+        <v>0.2947641963565862</v>
+      </c>
+      <c r="P25">
+        <v>0.2185409246064703</v>
+      </c>
+      <c r="Q25">
+        <v>9.484119839996334</v>
+      </c>
+      <c r="R25">
+        <v>56.904719039978</v>
+      </c>
+      <c r="S25">
+        <v>0.08595823727105409</v>
+      </c>
+      <c r="T25">
+        <v>0.07220912149732796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3671865</v>
+      </c>
+      <c r="H26">
+        <v>0.7343730000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.2472270101399119</v>
+      </c>
+      <c r="J26">
+        <v>0.1867459416738229</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.569834</v>
+      </c>
+      <c r="N26">
+        <v>1.139668</v>
+      </c>
+      <c r="O26">
+        <v>0.007670604929513537</v>
+      </c>
+      <c r="P26">
+        <v>0.005687058042690201</v>
+      </c>
+      <c r="Q26">
+        <v>0.209235352041</v>
+      </c>
+      <c r="R26">
+        <v>0.836941408164</v>
+      </c>
+      <c r="S26">
+        <v>0.001896380722688102</v>
+      </c>
+      <c r="T26">
+        <v>0.00106203500953587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.3671865</v>
+      </c>
+      <c r="H27">
+        <v>0.7343730000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.2472270101399119</v>
+      </c>
+      <c r="J27">
+        <v>0.1867459416738229</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>50.102415</v>
+      </c>
+      <c r="N27">
+        <v>150.307245</v>
+      </c>
+      <c r="O27">
+        <v>0.6744347151618419</v>
+      </c>
+      <c r="P27">
+        <v>0.7500482829664925</v>
+      </c>
+      <c r="Q27">
+        <v>18.3969304053975</v>
+      </c>
+      <c r="R27">
+        <v>110.381582432385</v>
+      </c>
+      <c r="S27">
+        <v>0.1667384781640253</v>
+      </c>
+      <c r="T27">
+        <v>0.1400684729034116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.3671865</v>
+      </c>
+      <c r="H28">
+        <v>0.7343730000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.2472270101399119</v>
+      </c>
+      <c r="J28">
+        <v>0.1867459416738229</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.4051446666666667</v>
+      </c>
+      <c r="N28">
+        <v>1.215434</v>
+      </c>
+      <c r="O28">
+        <v>0.005453701739979455</v>
+      </c>
+      <c r="P28">
+        <v>0.006065138009542361</v>
+      </c>
+      <c r="Q28">
+        <v>0.148763652147</v>
+      </c>
+      <c r="R28">
+        <v>0.8925819128820002</v>
+      </c>
+      <c r="S28">
+        <v>0.001348302375369956</v>
+      </c>
+      <c r="T28">
+        <v>0.001132639908973684</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.3671865</v>
+      </c>
+      <c r="H29">
+        <v>0.7343730000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.2472270101399119</v>
+      </c>
+      <c r="J29">
+        <v>0.1867459416738229</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.2841426666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.8524280000000001</v>
+      </c>
+      <c r="O29">
+        <v>0.00382487906937539</v>
+      </c>
+      <c r="P29">
+        <v>0.004253701528176911</v>
+      </c>
+      <c r="Q29">
+        <v>0.104333351274</v>
+      </c>
+      <c r="R29">
+        <v>0.626000107644</v>
+      </c>
+      <c r="S29">
+        <v>0.0009456134164684064</v>
+      </c>
+      <c r="T29">
+        <v>0.0007943614974787769</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.3671865</v>
+      </c>
+      <c r="H30">
+        <v>0.7343730000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.2472270101399119</v>
+      </c>
+      <c r="J30">
+        <v>0.1867459416738229</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.029030333333333</v>
+      </c>
+      <c r="N30">
+        <v>3.087091</v>
+      </c>
+      <c r="O30">
+        <v>0.01385190274270336</v>
+      </c>
+      <c r="P30">
+        <v>0.01540489484662774</v>
+      </c>
+      <c r="Q30">
+        <v>0.3778460464905</v>
+      </c>
+      <c r="R30">
+        <v>2.267076278943</v>
+      </c>
+      <c r="S30">
+        <v>0.003424564499827397</v>
+      </c>
+      <c r="T30">
+        <v>0.002876801594519718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.3671865</v>
+      </c>
+      <c r="H31">
+        <v>0.7343730000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.2472270101399119</v>
+      </c>
+      <c r="J31">
+        <v>0.1867459416738229</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>21.8974465</v>
+      </c>
+      <c r="N31">
+        <v>43.794893</v>
+      </c>
+      <c r="O31">
+        <v>0.2947641963565862</v>
+      </c>
+      <c r="P31">
+        <v>0.2185409246064703</v>
+      </c>
+      <c r="Q31">
+        <v>8.040446739272252</v>
+      </c>
+      <c r="R31">
+        <v>32.16178695708901</v>
+      </c>
+      <c r="S31">
+        <v>0.07287367096153274</v>
+      </c>
+      <c r="T31">
+        <v>0.04081163075990324</v>
       </c>
     </row>
   </sheetData>
